--- a/sendTextMsg.xlsx
+++ b/sendTextMsg.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>uid</t>
   </si>
@@ -22,46 +25,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>wxid</t>
-  </si>
-  <si>
     <t>msg</t>
   </si>
   <si>
-    <t>wxid_l12s2e45qnbz22</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>wxid_l12s2e45qnbz23</t>
-  </si>
-  <si>
-    <t>test10</t>
+    <t>wxid</t>
   </si>
 </sst>
 </file>
@@ -69,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,7 +58,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,6 +87,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -114,14 +103,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +125,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,11 +186,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,65 +200,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,145 +210,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,37 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +401,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,186 +501,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,6 +715,647 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="uidAndWxid"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>学员uin</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>姓名</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>wxid</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>144115214382726152</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>范紫萱</v>
+          </cell>
+          <cell r="E2" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>3025076255</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>黄轩</v>
+          </cell>
+          <cell r="E3" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>144115213935864015</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>夏天</v>
+          </cell>
+          <cell r="E4" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>1242197425</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>张宇轩</v>
+          </cell>
+          <cell r="E5" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>144115213783724290</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>袁紫玉</v>
+          </cell>
+          <cell r="E6" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>144115213939723867</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>董松华</v>
+          </cell>
+          <cell r="E7" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>144115213635331595</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>陈九洲</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>wxid_m3qo6txxs6g322</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>144115213592531328</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>兰欣悦</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>wxid_vrboab5zmymo21</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>2160689626</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>马苗苗</v>
+          </cell>
+          <cell r="E10" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>144115212116906545</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>张宇</v>
+          </cell>
+          <cell r="E11" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>144115214458369858</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>刘彦</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>wxid_ojr6y6dmgsyd22</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>1621936524</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>王籽硕</v>
+          </cell>
+          <cell r="E13" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>144115211266508056</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>赵琳</v>
+          </cell>
+          <cell r="E14" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>144115214782545336</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>杨欣娴</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>wxid_78a2zbfkdteu22</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>144115214716581103</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>宋天宇</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>wxid_9bbqafjr957m22</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>144115213411457658</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>罗蕴真</v>
+          </cell>
+          <cell r="E17" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>144115214061862574</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>颜乔伊</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>wxid_b05siwfkz3bz21</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>144115213761092831</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>落樱</v>
+          </cell>
+          <cell r="E19" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>1169337971</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>车乐</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>wxid_1ydbcaxmco9u21</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>1318244912</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>马俊</v>
+          </cell>
+          <cell r="E21" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>144115212768011339</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>高颖</v>
+          </cell>
+          <cell r="E22" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>144115215320619986</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>孙洋</v>
+          </cell>
+          <cell r="E23" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>144115215407458487</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>刘湘珺</v>
+          </cell>
+          <cell r="E24" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>144115213738430796</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>李卓蔓</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>wxid_e28v6vmgdrmo22</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>144115213612730082</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>孔思佳</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>wxid_ugx6qp6taogz22</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>144115213824393310</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>杨婧</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>wxid_asld4wuqcc0n22</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>1411386023</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>冯梦瑶</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>sunmeiling1124</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>2801935472</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>石津铭</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>wxid_3rl0ps542tu622</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>1368499537</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>凌潇楠</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>wxid_dmzd576s73ya51</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>1713019685</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>刘宇航</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>wxid_ttlve5eatykj12</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>144115214072571201</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>邓宇晴</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>wxid_njvwru09ot9a12</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>144115212978168860</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>刘家欣</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>wxid_rpb2f58jriqm21</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>144115213820518802</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>吴琪</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>wxid_hgdmqhfomfpg12</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>144115214082121417</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>刘颖洁</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>wxid_y8rvjsnd8sqv22</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>144115213586653647</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>周玲聿</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>wxid_d1os6vv94a6w21</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>2935128039</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>景嘉锐</v>
+          </cell>
+          <cell r="E37" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>144115213826166370</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>郭君仪</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>wxid_hcil3vhufhtu12</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>144115214939978469</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>刘博芝</v>
+          </cell>
+          <cell r="E39" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>144115214048108265</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>祝鑫鋆</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>wxid_jr47lw0f03vf22</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>144115214634521142</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>章灵</v>
+          </cell>
+          <cell r="E41" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>144115215273717788</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>史嘉鑫</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>wxid_v7iioht6v3lm22</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>144115214743714411</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>周晨</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>wxid_xbxiy0zdo7rf22</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44" t="str">
+            <v>144115215393609046</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>徐红惠</v>
+          </cell>
+          <cell r="E44" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45" t="str">
+            <v>144115215303923118</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>123</v>
+          </cell>
+          <cell r="E45" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>144115211234291905</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>查格西</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>wxid_7647706476914</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>144115214765650657</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>安润泽</v>
+          </cell>
+          <cell r="E47" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48" t="str">
+            <v>144115215324722862</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>车海博</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>wxid_pnhol9sk3mqm12</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>144115214640617540</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>邱冰</v>
+          </cell>
+          <cell r="E49" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>144115215444317919</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>蔡雨晴</v>
+          </cell>
+          <cell r="E50" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51" t="str">
+            <v>144115213157853485</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>海溶哲</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>wxid_17y9suibqm0021</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52" t="str">
+            <v>144115215548604158</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>王晓慧</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>wxid_8kuzeuezeouj22</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53" t="str">
+            <v>144115215459082662</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>李春金</v>
+          </cell>
+          <cell r="E53" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54" t="str">
+            <v>144115215546161394</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>王银琴</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>wxid_tckquvx45xne22</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>144115215459868694</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>王玉珏</v>
+          </cell>
+          <cell r="E55" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>144115215461642399</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>董莹</v>
+          </cell>
+          <cell r="E56" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57" t="str">
+            <v>144115215463116777</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>张鹏军</v>
+          </cell>
+          <cell r="E57" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,12 +1619,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="20.2142857142857" customWidth="1"/>
+    <col min="4" max="4" width="20.2142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1033,84 +1641,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="e">
+        <f>VLOOKUP(A2,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="e">
+        <f>VLOOKUP(A3,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="e">
+        <f>VLOOKUP(A4,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1" t="e">
+        <f>VLOOKUP(A5,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1" t="e">
+        <f>VLOOKUP(A6,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="e">
+        <f>VLOOKUP(A7,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="e">
+        <f>VLOOKUP(A8,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="e">
+        <f>VLOOKUP(A9,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="e">
+        <f>VLOOKUP(A10,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="e">
+        <f>VLOOKUP(A11,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
